--- a/data/trans_orig/P6510-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A45427D3-E45E-4CA0-9477-92E63055B086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81AE0539-28DE-4008-B1F8-20EFB876FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B80266-3D30-48DE-8FC0-65850CC1ACAA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC42B72-D630-48CE-93B9-CD25E1D98DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>27,23%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,934 +104,937 @@
     <t>31,39%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>25,02%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>29,18%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D7F1B-F2A8-4664-A364-9A1C4E86A55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E9EDC5-E02E-47A1-9556-1D94F9C4226B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1753,13 +1756,13 @@
         <v>31359</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1777,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1789,13 +1792,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1804,18 +1807,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1827,13 +1830,13 @@
         <v>130525</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -1842,13 +1845,13 @@
         <v>62927</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>184</v>
@@ -1857,13 +1860,13 @@
         <v>193452</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1881,13 @@
         <v>31172</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1893,13 +1896,13 @@
         <v>19935</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -1908,13 +1911,13 @@
         <v>51107</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1932,13 @@
         <v>50647</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -1944,13 +1947,13 @@
         <v>24264</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -1959,13 +1962,13 @@
         <v>74911</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>58137</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -1995,13 +1998,13 @@
         <v>22724</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>74</v>
@@ -2010,13 +2013,13 @@
         <v>80861</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2034,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -2046,33 +2049,33 @@
         <v>129850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400332</v>
+        <v>400331</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2087,13 @@
         <v>25768</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2099,13 +2102,13 @@
         <v>6906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2114,13 +2117,13 @@
         <v>32674</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2138,13 @@
         <v>48812</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2150,13 +2153,13 @@
         <v>13376</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -2165,13 +2168,13 @@
         <v>62188</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2189,13 @@
         <v>56861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2201,13 +2204,13 @@
         <v>49656</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -2216,13 +2219,13 @@
         <v>106517</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2240,13 @@
         <v>44263</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2252,13 +2255,13 @@
         <v>24628</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2267,13 +2270,13 @@
         <v>68891</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2291,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2303,13 +2306,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2318,18 +2321,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2344,13 @@
         <v>50507</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2356,13 +2359,13 @@
         <v>45282</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -2371,13 +2374,13 @@
         <v>95789</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2395,13 @@
         <v>81069</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2407,13 +2410,13 @@
         <v>27612</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2422,13 +2425,13 @@
         <v>108681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2446,13 @@
         <v>59755</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2458,13 +2461,13 @@
         <v>41497</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -2473,13 +2476,13 @@
         <v>101252</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2497,13 @@
         <v>30687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2509,13 +2512,13 @@
         <v>21694</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2524,13 +2527,13 @@
         <v>52381</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2548,13 @@
         <v>222018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2560,13 +2563,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2575,18 +2578,18 @@
         <v>358103</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2601,13 @@
         <v>47812</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2613,13 +2616,13 @@
         <v>18519</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2628,13 +2631,13 @@
         <v>66331</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2652,13 @@
         <v>19584</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2664,13 +2667,13 @@
         <v>8063</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2679,13 +2682,13 @@
         <v>27647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2703,13 @@
         <v>17013</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2715,13 +2718,13 @@
         <v>12972</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -2730,13 +2733,13 @@
         <v>29986</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2754,13 @@
         <v>27768</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2766,13 +2769,13 @@
         <v>10872</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -2781,13 +2784,13 @@
         <v>38639</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2805,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2817,13 +2820,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2832,18 +2835,18 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2858,13 @@
         <v>15628</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2870,13 +2873,13 @@
         <v>11347</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2885,13 +2888,13 @@
         <v>26975</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2909,13 @@
         <v>45121</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2921,13 +2924,13 @@
         <v>20078</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -2936,13 +2939,13 @@
         <v>65200</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2960,13 @@
         <v>57173</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -2972,13 +2975,13 @@
         <v>39454</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>94</v>
@@ -2987,13 +2990,13 @@
         <v>96627</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3011,13 @@
         <v>37180</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -3023,13 +3026,13 @@
         <v>11938</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -3041,10 +3044,10 @@
         <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3062,13 @@
         <v>155102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3074,13 +3077,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>229</v>
@@ -3089,18 +3092,18 @@
         <v>237920</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3115,13 @@
         <v>52759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -3127,13 +3130,13 @@
         <v>31663</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3142,13 +3145,13 @@
         <v>84422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3166,13 @@
         <v>59536</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -3178,13 +3181,13 @@
         <v>36162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>94</v>
@@ -3193,13 +3196,13 @@
         <v>95698</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3217,13 @@
         <v>90183</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -3229,13 +3232,13 @@
         <v>51314</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>134</v>
@@ -3244,13 +3247,13 @@
         <v>141497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3268,13 @@
         <v>132451</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3280,13 +3283,13 @@
         <v>61407</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>176</v>
@@ -3295,13 +3298,13 @@
         <v>193859</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3319,13 @@
         <v>334928</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>168</v>
@@ -3331,13 +3334,13 @@
         <v>180547</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>484</v>
@@ -3346,18 +3349,18 @@
         <v>515476</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3372,13 @@
         <v>125849</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>82</v>
@@ -3384,13 +3387,13 @@
         <v>88347</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>204</v>
@@ -3399,13 +3402,13 @@
         <v>214196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3423,13 @@
         <v>77560</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
@@ -3435,13 +3438,13 @@
         <v>39056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>113</v>
@@ -3450,13 +3453,13 @@
         <v>116616</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3474,13 @@
         <v>136571</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>49</v>
@@ -3486,13 +3489,13 @@
         <v>49965</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>179</v>
@@ -3501,13 +3504,13 @@
         <v>186536</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3525,13 @@
         <v>127185</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -3537,13 +3540,13 @@
         <v>60675</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>185</v>
@@ -3552,13 +3555,13 @@
         <v>187860</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3576,13 @@
         <v>467165</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>227</v>
@@ -3588,13 +3591,13 @@
         <v>238042</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>681</v>
@@ -3603,13 +3606,13 @@
         <v>705207</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3629,13 @@
         <v>491269</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H44" s="7">
         <v>283</v>
@@ -3641,28 +3644,28 @@
         <v>298092</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>756</v>
       </c>
       <c r="N44" s="7">
-        <v>789362</v>
+        <v>789361</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3680,13 @@
         <v>414776</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>208</v>
@@ -3692,13 +3695,13 @@
         <v>216821</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>607</v>
@@ -3707,13 +3710,13 @@
         <v>631597</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3731,13 @@
         <v>514077</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>277</v>
@@ -3743,13 +3746,13 @@
         <v>289290</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>770</v>
@@ -3758,13 +3761,13 @@
         <v>803366</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3782,13 @@
         <v>482852</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="H47" s="7">
         <v>212</v>
@@ -3794,28 +3797,28 @@
         <v>220116</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>669</v>
       </c>
       <c r="N47" s="7">
-        <v>702968</v>
+        <v>702967</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3833,13 @@
         <v>1902974</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>980</v>
@@ -3845,33 +3848,33 @@
         <v>1024319</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>2802</v>
       </c>
       <c r="N48" s="7">
-        <v>2927293</v>
+        <v>2927292</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81AE0539-28DE-4008-B1F8-20EFB876FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC533346-B115-4C70-B4D7-B6E0F0041BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFC42B72-D630-48CE-93B9-CD25E1D98DA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA17D70-2555-4D29-8857-D3E11CFCDE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,967 +74,958 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>27,23%</t>
   </si>
   <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>29,05%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>25,59%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1449,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E9EDC5-E02E-47A1-9556-1D94F9C4226B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23270FAE-7266-4934-BABC-B5954C115A30}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1756,13 +1747,13 @@
         <v>31359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1768,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1792,13 +1783,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1807,18 +1798,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1830,13 +1821,13 @@
         <v>130525</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -1845,13 +1836,13 @@
         <v>62927</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>184</v>
@@ -1860,13 +1851,13 @@
         <v>193452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1872,13 @@
         <v>31172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1896,13 +1887,13 @@
         <v>19935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -1911,13 +1902,13 @@
         <v>51107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1923,13 @@
         <v>50647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -1947,13 +1938,13 @@
         <v>24264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -1962,13 +1953,13 @@
         <v>74911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1974,13 @@
         <v>58137</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -1998,10 +1989,10 @@
         <v>22724</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>83</v>
@@ -2034,13 +2025,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -2049,13 +2040,13 @@
         <v>129850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
@@ -2064,13 +2055,13 @@
         <v>400331</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2282,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2306,13 +2297,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2321,13 +2312,13 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2392,7 @@
         <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2410,13 +2401,13 @@
         <v>27612</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2425,13 +2416,13 @@
         <v>108681</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2437,13 @@
         <v>59755</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2461,13 +2452,13 @@
         <v>41497</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -2476,13 +2467,13 @@
         <v>101252</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2488,13 @@
         <v>30687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2512,13 +2503,13 @@
         <v>21694</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2527,13 +2518,13 @@
         <v>52381</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2539,13 @@
         <v>222018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2563,13 +2554,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2578,18 +2569,18 @@
         <v>358103</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2592,13 @@
         <v>47812</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2616,13 +2607,13 @@
         <v>18519</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2631,13 +2622,13 @@
         <v>66331</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2643,13 @@
         <v>19584</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2667,13 +2658,13 @@
         <v>8063</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2682,13 +2673,13 @@
         <v>27647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2781,7 @@
         <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2796,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2820,13 +2811,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2835,18 +2826,18 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2849,13 @@
         <v>15628</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2873,13 +2864,13 @@
         <v>11347</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2888,13 +2879,13 @@
         <v>26975</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2900,13 @@
         <v>45121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2924,13 +2915,13 @@
         <v>20078</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -2939,13 +2930,13 @@
         <v>65200</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2951,13 @@
         <v>57173</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -2975,13 +2966,13 @@
         <v>39454</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>94</v>
@@ -2990,13 +2981,13 @@
         <v>96627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3002,13 @@
         <v>37180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -3026,13 +3017,13 @@
         <v>11938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -3041,13 +3032,13 @@
         <v>49118</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3053,13 @@
         <v>155102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3077,13 +3068,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>229</v>
@@ -3092,18 +3083,18 @@
         <v>237920</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3106,13 @@
         <v>52759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -3130,13 +3121,13 @@
         <v>31663</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3145,13 +3136,13 @@
         <v>84422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3157,13 @@
         <v>59536</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -3181,13 +3172,13 @@
         <v>36162</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>94</v>
@@ -3196,13 +3187,13 @@
         <v>95698</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3208,13 @@
         <v>90183</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -3232,13 +3223,13 @@
         <v>51314</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>134</v>
@@ -3247,13 +3238,13 @@
         <v>141497</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3259,13 @@
         <v>132451</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3283,13 +3274,13 @@
         <v>61407</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>176</v>
@@ -3298,13 +3289,13 @@
         <v>193859</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3310,13 @@
         <v>334928</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>168</v>
@@ -3334,13 +3325,13 @@
         <v>180547</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>484</v>
@@ -3349,18 +3340,18 @@
         <v>515476</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3372,10 +3363,10 @@
         <v>125849</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>268</v>
@@ -3528,10 +3519,10 @@
         <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -3543,10 +3534,10 @@
         <v>121</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="M42" s="7">
         <v>185</v>
@@ -3555,13 +3546,13 @@
         <v>187860</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3567,13 @@
         <v>467165</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>227</v>
@@ -3591,13 +3582,13 @@
         <v>238042</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>681</v>
@@ -3606,13 +3597,13 @@
         <v>705207</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3620,13 @@
         <v>491269</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H44" s="7">
         <v>283</v>
@@ -3644,13 +3635,13 @@
         <v>298092</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>756</v>
@@ -3659,13 +3650,13 @@
         <v>789361</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3671,13 @@
         <v>414776</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="H45" s="7">
         <v>208</v>
@@ -3695,13 +3686,13 @@
         <v>216821</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>607</v>
@@ -3710,13 +3701,13 @@
         <v>631597</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3722,13 @@
         <v>514077</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="H46" s="7">
         <v>277</v>
@@ -3746,13 +3737,13 @@
         <v>289290</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>770</v>
@@ -3761,13 +3752,13 @@
         <v>803366</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3773,13 @@
         <v>482852</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>212</v>
@@ -3797,13 +3788,13 @@
         <v>220116</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>669</v>
@@ -3812,13 +3803,13 @@
         <v>702967</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3824,13 @@
         <v>1902974</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>980</v>
@@ -3848,13 +3839,13 @@
         <v>1024319</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>2802</v>
@@ -3863,18 +3854,18 @@
         <v>2927292</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC533346-B115-4C70-B4D7-B6E0F0041BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A86663-BEE3-4E95-859C-26C0112306BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAA17D70-2555-4D29-8857-D3E11CFCDE8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F348244-52AD-4F67-A999-DBB61AF8ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,25 +74,25 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>27,23%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>21,87%</t>
   </si>
   <si>
     <t>32,82%</t>
@@ -104,28 +104,28 @@
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>46,92%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>27,73%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,673 +164,670 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>10,47%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
+    <t>42,22%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -839,55 +836,52 @@
     <t>26,94%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>43,58%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>29,23%</t>
@@ -896,136 +890,148 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>34,14%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>16,46%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>25,17%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>20,02%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,88%</t>
+    <t>25,02%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23270FAE-7266-4934-BABC-B5954C115A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5D2A7-54A1-45F8-8667-75B581D9A03E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1992,10 +1998,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>74</v>
@@ -2004,13 +2010,13 @@
         <v>80861</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,7 +2058,7 @@
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400331</v>
+        <v>400332</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2084,13 @@
         <v>25768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2093,13 +2099,13 @@
         <v>6906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2108,13 +2114,13 @@
         <v>32674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2135,13 @@
         <v>48812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2144,13 +2150,13 @@
         <v>13376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -2159,13 +2165,13 @@
         <v>62188</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2186,13 @@
         <v>56861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2195,13 +2201,13 @@
         <v>49656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -2210,13 +2216,13 @@
         <v>106517</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2237,13 @@
         <v>44263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2246,13 +2252,13 @@
         <v>24628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2261,13 +2267,13 @@
         <v>68891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2329,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2341,13 @@
         <v>50507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2350,13 +2356,13 @@
         <v>45282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -2365,13 +2371,13 @@
         <v>95789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2392,13 @@
         <v>81069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2401,13 +2407,13 @@
         <v>27612</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2416,13 +2422,13 @@
         <v>108681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2443,13 @@
         <v>59755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2452,13 +2458,13 @@
         <v>41497</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -2467,13 +2473,13 @@
         <v>101252</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2494,13 @@
         <v>30687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2503,13 +2509,13 @@
         <v>21694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2518,13 +2524,13 @@
         <v>52381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2598,13 @@
         <v>47812</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2607,13 +2613,13 @@
         <v>18519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -2622,13 +2628,13 @@
         <v>66331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2649,13 @@
         <v>19584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2658,13 +2664,13 @@
         <v>8063</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2673,13 +2679,13 @@
         <v>27647</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2700,13 @@
         <v>17013</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2709,13 +2715,13 @@
         <v>12972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -2724,13 +2730,13 @@
         <v>29986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2751,13 @@
         <v>27768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2760,13 +2766,13 @@
         <v>10872</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -2775,13 +2781,13 @@
         <v>38639</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2843,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2855,13 @@
         <v>15628</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2864,13 +2870,13 @@
         <v>11347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2879,13 +2885,13 @@
         <v>26975</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2906,13 @@
         <v>45121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2915,13 +2921,13 @@
         <v>20078</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -2930,13 +2936,13 @@
         <v>65200</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2957,13 @@
         <v>57173</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>38</v>
@@ -2966,13 +2972,13 @@
         <v>39454</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>94</v>
@@ -2981,13 +2987,13 @@
         <v>96627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3008,13 @@
         <v>37180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -3017,13 +3023,13 @@
         <v>11938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="M32" s="7">
         <v>47</v>
@@ -3032,13 +3038,13 @@
         <v>49118</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3112,13 @@
         <v>52759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -3121,13 +3127,13 @@
         <v>31663</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3136,13 +3142,13 @@
         <v>84422</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3163,13 @@
         <v>59536</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -3190,10 +3196,10 @@
         <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3214,13 @@
         <v>90183</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -3223,13 +3229,13 @@
         <v>51314</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>134</v>
@@ -3238,13 +3244,13 @@
         <v>141497</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>132451</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -3274,13 +3280,13 @@
         <v>61407</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>176</v>
@@ -3289,13 +3295,13 @@
         <v>193859</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3369,13 @@
         <v>125849</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>82</v>
@@ -3378,13 +3384,13 @@
         <v>88347</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>204</v>
@@ -3393,13 +3399,13 @@
         <v>214196</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>77560</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>38</v>
@@ -3429,13 +3435,13 @@
         <v>39056</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>113</v>
@@ -3444,13 +3450,13 @@
         <v>116616</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>136571</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>49</v>
@@ -3480,13 +3486,13 @@
         <v>49965</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="M41" s="7">
         <v>179</v>
@@ -3495,13 +3501,13 @@
         <v>186536</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3522,13 @@
         <v>127185</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -3531,13 +3537,13 @@
         <v>60675</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>185</v>
@@ -3546,13 +3552,13 @@
         <v>187860</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3626,13 @@
         <v>491269</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>283</v>
@@ -3635,28 +3641,28 @@
         <v>298092</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>756</v>
       </c>
       <c r="N44" s="7">
-        <v>789361</v>
+        <v>789362</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3683,7 @@
         <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>208</v>
@@ -3686,13 +3692,13 @@
         <v>216821</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7">
         <v>607</v>
@@ -3701,13 +3707,13 @@
         <v>631597</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3728,13 @@
         <v>514077</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H46" s="7">
         <v>277</v>
@@ -3737,13 +3743,13 @@
         <v>289290</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>770</v>
@@ -3752,13 +3758,13 @@
         <v>803366</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3779,13 @@
         <v>482852</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>212</v>
@@ -3791,25 +3797,25 @@
         <v>79</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>669</v>
       </c>
       <c r="N47" s="7">
-        <v>702967</v>
+        <v>702968</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,7 +3857,7 @@
         <v>2802</v>
       </c>
       <c r="N48" s="7">
-        <v>2927292</v>
+        <v>2927293</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3865,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A86663-BEE3-4E95-859C-26C0112306BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE61FB96-ED1D-400F-9AC2-A461D6794BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F348244-52AD-4F67-A999-DBB61AF8ED1C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC037EA1-A9EC-4198-B60D-E95B03A41816}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5D2A7-54A1-45F8-8667-75B581D9A03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D16476-6D44-4555-AF7E-87DF5FEA2D6A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,7 +2058,7 @@
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400332</v>
+        <v>400331</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
